--- a/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/study03/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="100">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -36,7 +36,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -66,10 +66,10 @@
     <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified</t>
   </si>
   <si>
     <t>UserID</t>
@@ -135,13 +135,13 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in Master</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -174,7 +174,7 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -183,10 +183,10 @@
     <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in Apprentice</t>
   </si>
   <si>
     <t>Attractive Devils</t>
@@ -198,7 +198,7 @@
     <t>Mafia</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -207,13 +207,13 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Level of Motivation in w/o-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Level of Motivation in w/o-gamified using the method: spearman</t>
   </si>
   <si>
     <t>Level of Motivation</t>
@@ -222,31 +222,31 @@
     <t>GiS/K-LvloM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Level of Motivation in w/o-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Level of Motivation in w/o-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Level of Motivation in w/o-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Level of Motivation in w/o-gamified</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Level of Motivation in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Level of Motivation in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Level of Motivation in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Level of Motivation in w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Level of Motivation in w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Level of Motivation in w/o-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Level of Motivation in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Level of Motivation in w/o-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Level of Motivation in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Attention in w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Attention</t>
@@ -255,13 +255,13 @@
     <t>GiS/K-Attnt</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Attention in w/o-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Attention in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Attention in w/o-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Relevance in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in Master using the method: spearman</t>
   </si>
   <si>
     <t>Relevance</t>
@@ -270,22 +270,22 @@
     <t>GiS/K-Rlvnc</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Relevance in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Relevance in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Relevance in w/o-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Satisfaction in w/o-gamified using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in w/o-gamified using the method: spearman</t>
   </si>
   <si>
     <t>Satisfaction</t>
@@ -294,37 +294,37 @@
     <t>GiS/K-Stsfc</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Satisfaction in w/o-gamified</t>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in w/o-gamified</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Satisfaction in w/o-gamified</t>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in w/o-gamified</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Satisfaction in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Satisfaction in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Satisfaction in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Satisfaction in w/o-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in w/o-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Satisfaction in w/o-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Satisfaction in w/o-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in w/o-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Satisfaction in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Satisfaction in w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in w/o-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Satisfaction in w/o-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in w/o-gamified.Master</t>
   </si>
 </sst>
 </file>
